--- a/analysis/2016-12-12/enrichr_mutated_GO_terms.xlsx
+++ b/analysis/2016-12-12/enrichr_mutated_GO_terms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="37760" windowHeight="19320" tabRatio="500"/>
+    <workbookView xWindow="3160" yWindow="460" windowWidth="29080" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="138">
   <si>
     <t>nucleolus</t>
   </si>
@@ -161,9 +161,6 @@
     <t>ARAP3</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>RASGRP3</t>
   </si>
   <si>
@@ -432,6 +429,18 @@
   </si>
   <si>
     <t>positive_regulation_of_IL1_secretion</t>
+  </si>
+  <si>
+    <t>RALGAPA1</t>
+  </si>
+  <si>
+    <t>RABGAP1L</t>
+  </si>
+  <si>
+    <t>ARHGAP44</t>
+  </si>
+  <si>
+    <t>DNASE1L3</t>
   </si>
 </sst>
 </file>
@@ -748,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,118 +847,118 @@
         <v>36</v>
       </c>
       <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>63</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" t="s">
-        <v>66</v>
-      </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC1" t="s">
         <v>35</v>
       </c>
       <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
         <v>86</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" t="s">
-        <v>88</v>
-      </c>
       <c r="AG1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH1" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" t="s">
-        <v>83</v>
-      </c>
       <c r="AI1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>91</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>92</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>93</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>96</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>97</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>98</v>
       </c>
-      <c r="AR1" t="s">
-        <v>99</v>
-      </c>
       <c r="AS1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" t="s">
         <v>108</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>109</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>110</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX1" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB1" t="s">
         <v>115</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
@@ -1002,34 +1011,34 @@
         <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="s">
         <v>37</v>
@@ -1053,67 +1062,67 @@
         <v>37</v>
       </c>
       <c r="AH2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>103</v>
-      </c>
       <c r="BA2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BB2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -1160,88 +1169,88 @@
         <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AV3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AW3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AX3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AY3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AZ3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
@@ -1285,61 +1294,61 @@
         <v>40</v>
       </c>
       <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
         <v>69</v>
       </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AE4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AF4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AG4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AK4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AU4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
@@ -1380,61 +1389,61 @@
         <v>41</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
         <v>80</v>
       </c>
-      <c r="S5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" t="s">
-        <v>81</v>
-      </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT5" t="s">
         <v>120</v>
       </c>
-      <c r="AT5" t="s">
-        <v>121</v>
-      </c>
       <c r="AU5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
@@ -1475,58 +1484,58 @@
         <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AT6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU6" t="s">
         <v>122</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
@@ -1570,10 +1579,10 @@
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s">
         <v>22</v>
@@ -1585,31 +1594,31 @@
         <v>22</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AT7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
@@ -1626,58 +1635,58 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s">
         <v>29</v>
       </c>
       <c r="AA8" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AC8" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AD8" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AE8" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AF8" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AT8" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="AU8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
@@ -1694,55 +1703,55 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="Q9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" t="s">
         <v>73</v>
       </c>
-      <c r="W9" t="s">
-        <v>73</v>
-      </c>
-      <c r="X9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>74</v>
-      </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AU9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
@@ -1759,19 +1768,19 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
         <v>29</v>
@@ -1804,7 +1813,7 @@
         <v>43</v>
       </c>
       <c r="AU10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
@@ -1821,31 +1830,31 @@
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s">
         <v>40</v>
@@ -1866,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="AU11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
@@ -1880,31 +1889,31 @@
         <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s">
         <v>39</v>
@@ -1925,7 +1934,7 @@
         <v>39</v>
       </c>
       <c r="AU12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
@@ -1939,49 +1948,49 @@
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
@@ -1989,31 +1998,31 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
         <v>77</v>
-      </c>
-      <c r="W14" t="s">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>78</v>
       </c>
       <c r="AA14" t="s">
         <v>41</v>
@@ -2039,49 +2048,49 @@
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s">
         <v>78</v>
       </c>
-      <c r="W15" t="s">
-        <v>78</v>
-      </c>
-      <c r="X15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>79</v>
-      </c>
       <c r="AA15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
@@ -2089,46 +2098,46 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
@@ -2136,48 +2145,48 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="s">
         <v>42</v>
       </c>
       <c r="AG17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="s">
         <v>42</v>
@@ -2206,71 +2215,71 @@
         <v>38</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
         <v>54</v>
       </c>
-      <c r="M20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" t="s">
-        <v>55</v>
-      </c>
       <c r="AA20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA21" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC21" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AD21" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AG21" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
